--- a/ipl-2020-21-1210595/kolkata knight riders vs chennai super kings 21st match 1216501/Bowling2.xlsx
+++ b/ipl-2020-21-1210595/kolkata knight riders vs chennai super kings 21st match 1216501/Bowling2.xlsx
@@ -452,142 +452,142 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Sam Curran</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>26</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>6.50</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>28</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>7.00</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>13</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Karn Sharma</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>25</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>6.25</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Dwayne Bravo</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>37</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>9.25</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
